--- a/Final Exam/HWA Infestation Symptoms.xlsx
+++ b/Final Exam/HWA Infestation Symptoms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/07_ Cursos/Stats_Grad/Final Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A7EFAE-E9C7-4403-909E-905153819A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{47A7EFAE-E9C7-4403-909E-905153819A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{088B6DA3-5CDD-4011-B7A8-F29E998929FE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFA34D1E-9ADF-4905-BC0B-E1ED35AEC3B3}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{AFA34D1E-9ADF-4905-BC0B-E1ED35AEC3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,19 +468,19 @@
   <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,11 +511,11 @@
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -543,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -578,7 +585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -613,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -648,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -683,7 +690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -718,7 +725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -753,7 +760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -788,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -823,7 +830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -858,7 +865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -893,7 +900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -928,7 +935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -963,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2118,7 +2125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2223,7 +2230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2398,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2503,7 +2510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2573,7 +2580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2608,7 +2615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3098,7 +3105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -3693,7 +3700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3763,7 +3770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4113,7 +4120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -4183,7 +4190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4218,7 +4225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -4463,7 +4470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4568,7 +4575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -4603,7 +4610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +4715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +4750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4918,7 +4925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4988,7 +4995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -5023,7 +5030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -5093,7 +5100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -5163,7 +5170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -5373,7 +5380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -5478,7 +5485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -5513,7 +5520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -5653,7 +5660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -5723,7 +5730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -5758,7 +5765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -5793,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -5828,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -5863,7 +5870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -5933,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -6073,7 +6080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -6213,7 +6220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -6353,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -6423,7 +6430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -6458,7 +6465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -6493,7 +6500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -6528,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -6598,7 +6605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -6633,7 +6640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -6703,7 +6710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -6738,7 +6745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -6773,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
